--- a/fhir/ig/tei/0.2.1/StructureDefinition-SospechaPatologiaGes.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-SospechaPatologiaGes.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
